--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_27_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_27_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1228666.348384688</v>
+        <v>1213701.835143162</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8308023.723084718</v>
+        <v>9654200.856693137</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11188531.24173439</v>
+        <v>17785260.94054101</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6299312.47334215</v>
+        <v>4442460.806207412</v>
       </c>
     </row>
     <row r="11">
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q11" t="n">
-        <v>210.356400519837</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>114.8883373120542</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
-        <v>129.0485656756817</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
-        <v>119.3924227287208</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L13" t="n">
-        <v>122.9353869266258</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M13" t="n">
-        <v>126.9764945929925</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N13" t="n">
-        <v>115.7362551106207</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O13" t="n">
-        <v>126.5072490972303</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P13" t="n">
-        <v>125.7787146945351</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>89.9595594567506</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>144.0355139600858</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9000,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>8.436034930064309</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>35.751281596731</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
-        <v>51.04768885208263</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P15" t="n">
-        <v>42.88806234439456</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,25 +9087,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>37.92691310059969</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L16" t="n">
-        <v>43.7983312113026</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
-        <v>47.83943887766937</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N16" t="n">
-        <v>36.5991993952975</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>47.3701933819071</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
-        <v>46.64165897921193</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q16" t="n">
-        <v>60.41865655951015</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>89.9595594567506</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q17" t="n">
-        <v>131.2193448045138</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>35.751281596731</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>51.04768885208263</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>71.26626077830798</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,25 +9324,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>37.92691310059969</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>43.7983312113026</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>47.83943887766937</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
-        <v>36.5991993952975</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>47.3701933819071</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>46.64165897921193</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
-        <v>60.41865655951015</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>89.9595594567506</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>220.0898510449805</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>235.7664149699872</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>230.3462332272727</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>229.4130635965909</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>230.0982114216867</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>231.2329957552695</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.2193448045138</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9474,31 +9476,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>8.436034930064309</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>35.751281596731</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
-        <v>46.7550939044233</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>64.31591099413994</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,25 +9561,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>37.92691310059969</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>43.7983312113026</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
-        <v>47.83943887766937</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>36.5991993952975</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
-        <v>47.3701933819071</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>46.64165897921193</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
-        <v>60.41865655951015</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>89.9595594567506</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>220.0898510449805</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>235.7664149699872</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>230.3462332272727</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>229.4130635965909</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>230.0982114216867</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>231.2329957552695</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>131.2193448045138</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9711,31 +9713,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>8.436034930064309</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>35.751281596731</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>40.25536701339762</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>66.94860632513688</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,25 +9798,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>37.92691310059969</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>43.7983312113026</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>47.83943887766937</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
-        <v>36.5991993952975</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>47.3701933819071</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>46.64165897921193</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
-        <v>60.41865655951015</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>94.8838612749919</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>220.0898510449805</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>235.7664149699872</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>230.3462332272727</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>229.4130635965909</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>230.0982114216867</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
-        <v>231.2329957552695</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>148.2669491908351</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>40.67558341497231</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>55.97199067032393</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>47.81236416263586</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>42.85121491884099</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>48.7226330295439</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
-        <v>52.76374069591067</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N28" t="n">
-        <v>41.52350121353881</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O28" t="n">
-        <v>52.2944952001484</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>51.56596079745323</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>35.62485650375504</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>220.0898510449805</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>235.7664149699872</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>230.3462332272727</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>229.4130635965909</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>230.0982114216867</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>231.2329957552695</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>76.88464185151824</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10185,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>116.0167778138953</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
-        <v>0.2584559410327074</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
-        <v>134.8846762812383</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M31" t="n">
-        <v>138.9257839476051</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N31" t="n">
-        <v>127.6855444652332</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O31" t="n">
-        <v>138.4565384518428</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.083953606514598</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>35.62485650375504</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
-        <v>220.0898510449805</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>235.7664149699872</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>230.3462332272727</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>229.4130635965909</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>230.0982114216867</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>231.2329957552695</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>76.88464185151824</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10422,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>111.9749131493162</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
-        <v>0.2584559410327074</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
-        <v>134.8846762812383</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M34" t="n">
-        <v>138.9257839476051</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N34" t="n">
-        <v>127.6855444652332</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
-        <v>138.4565384518428</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.083953606514598</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>35.62485650375504</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>220.0898510449805</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>235.7664149699872</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>230.3462332272727</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
-        <v>229.4130635965909</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>230.0982114216867</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>231.2329957552695</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
-        <v>76.88464185151824</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10659,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
-        <v>42.11571571705278</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
-        <v>0.2584559410327074</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
-        <v>134.8846762812383</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
-        <v>138.9257839476051</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O37" t="n">
-        <v>138.4565384518428</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.083953606514598</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>35.62485650375504</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>220.0898510449805</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>235.7664149699872</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>230.3462332272727</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>229.4130635965909</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>230.0982114216867</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>231.2329957552695</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>76.88464185151824</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10896,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>116.729718619402</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
-        <v>0.2584559410327074</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>134.8846762812383</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
-        <v>138.9257839476051</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
-        <v>127.6855444652332</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>138.4565384518428</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.083953606514598</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>42.64984404012625</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>235.7664149699872</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>230.3462332272727</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>230.0982114216867</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.90962938788945</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11133,31 +11135,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>0.1583192933141504</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>140.935824483936</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.585713599461485</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11215,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
-        <v>134.8846762812383</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M43" t="n">
-        <v>138.9257839476051</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N43" t="n">
-        <v>127.6855444652332</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>138.4565384518428</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.10894114288581</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>134.8846762812383</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>138.9257839476051</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>127.6855444652332</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>138.4565384518428</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>370.7845523088681</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>353.323602416395</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>342.7337522660704</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>369.9810807176493</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>394.9267563870989</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>403.3534481605225</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H11" t="n">
-        <v>327.5255127611546</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I11" t="n">
-        <v>198.5266002157934</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>137.9198285865372</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S11" t="n">
-        <v>197.0707802316328</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T11" t="n">
-        <v>211.1465602095188</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U11" t="n">
-        <v>239.396363553224</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V11" t="n">
-        <v>315.8029691155224</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>337.2916793628005</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>357.7818113238565</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>374.2886493014411</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>154.5838942952548</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>160.7592096337032</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>135.4957762100262</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>145.6957911007884</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>133.1199230387714</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>125.3942278085981</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H12" t="n">
-        <v>100.2861548818839</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I12" t="n">
-        <v>77.44734349680256</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>88.20854479803062</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S12" t="n">
-        <v>159.7338817492253</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T12" t="n">
-        <v>188.2154393402091</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U12" t="n">
-        <v>213.9920927263623</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V12" t="n">
-        <v>220.8512977948128</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>239.7456938063071</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>193.823695848865</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>193.7334064226918</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23413,34 +23415,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>167.8826908273248</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>155.2975317440153</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>136.6661836635998</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>134.4846732919567</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4717586683187</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>156.0416900038462</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H13" t="n">
-        <v>150.2778831528271</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I13" t="n">
-        <v>143.5011855726458</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>81.40989076206026</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K13" t="n">
-        <v>10.32020247127033</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.21275389708187</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R13" t="n">
-        <v>165.344102022557</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S13" t="n">
-        <v>212.0673086823597</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T13" t="n">
-        <v>215.996300073669</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U13" t="n">
-        <v>274.3697400018784</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V13" t="n">
-        <v>240.1883539692155</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>274.5737089819785</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>213.7603660344246</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>206.6353639974823</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>291.6474965935449</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>274.1865467010718</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>263.5966965507473</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>290.8440250023261</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>315.7897006717757</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>324.2163924451993</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H14" t="n">
-        <v>248.3884570458314</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I14" t="n">
-        <v>119.3895445004702</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>58.78277287121399</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S14" t="n">
-        <v>117.9337245163097</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T14" t="n">
-        <v>132.0095044941957</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U14" t="n">
-        <v>160.2593078379008</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V14" t="n">
-        <v>236.6659134001992</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>258.1546236474773</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>278.6447556085333</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>295.1515935861179</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23571,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>75.44683857993165</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>81.62215391838005</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>56.35872049470306</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>66.55873538546525</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>53.98286732344819</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>46.25717209327495</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H15" t="n">
-        <v>21.14909916656077</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.071489082707444</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S15" t="n">
-        <v>80.59682603390213</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T15" t="n">
-        <v>109.0783836248859</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U15" t="n">
-        <v>134.8550370110391</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V15" t="n">
-        <v>141.7142420794896</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>160.6086380909839</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>114.6866401335418</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>114.5963507073687</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.74563511200161</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>76.16047602869214</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>57.52912794827667</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>55.34761757663348</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>54.33470295299556</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>76.90463428852307</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H16" t="n">
-        <v>71.14082743750389</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I16" t="n">
-        <v>64.3641298573226</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J16" t="n">
-        <v>2.272835046737086</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R16" t="n">
-        <v>86.2070463072338</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S16" t="n">
-        <v>132.9302529670366</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T16" t="n">
-        <v>136.8592443583458</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U16" t="n">
-        <v>195.2326842865552</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V16" t="n">
-        <v>161.0512982538923</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>195.4366532666553</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>134.6233103191014</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.4983082821591</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>291.6474965935449</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>274.1865467010718</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>263.5966965507473</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>290.8440250023261</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>315.7897006717757</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>324.2163924451993</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H17" t="n">
-        <v>248.3884570458314</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I17" t="n">
-        <v>119.3895445004702</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>58.78277287121399</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S17" t="n">
-        <v>117.9337245163097</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T17" t="n">
-        <v>132.0095044941957</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U17" t="n">
-        <v>160.2593078379008</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V17" t="n">
-        <v>236.6659134001992</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>258.1546236474773</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>278.6447556085333</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>295.1515935861179</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23808,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>75.44683857993165</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>81.62215391838005</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>56.35872049470306</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>66.55873538546525</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>53.98286732344819</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>46.25717209327495</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H18" t="n">
-        <v>21.14909916656077</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.071489082707444</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S18" t="n">
-        <v>80.59682603390213</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T18" t="n">
-        <v>109.0783836248859</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U18" t="n">
-        <v>134.8550370110391</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V18" t="n">
-        <v>141.7142420794896</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>160.6086380909839</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>114.6866401335418</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>114.5963507073687</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23887,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>88.74563511200161</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>76.16047602869214</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>57.52912794827667</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>55.34761757663348</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>54.33470295299556</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>76.90463428852307</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H19" t="n">
-        <v>71.14082743750389</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I19" t="n">
-        <v>64.3641298573226</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J19" t="n">
-        <v>2.272835046737086</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R19" t="n">
-        <v>86.2070463072338</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S19" t="n">
-        <v>132.9302529670366</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T19" t="n">
-        <v>136.8592443583458</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U19" t="n">
-        <v>195.2326842865552</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V19" t="n">
-        <v>161.0512982538923</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>195.4366532666553</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>134.6233103191014</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>127.4983082821591</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>291.6474965935449</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>274.1865467010718</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>263.5966965507473</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>290.8440250023261</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>315.7897006717757</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>324.2163924451993</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H20" t="n">
-        <v>248.3884570458314</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I20" t="n">
-        <v>119.3895445004702</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>58.78277287121399</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S20" t="n">
-        <v>117.9337245163097</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T20" t="n">
-        <v>132.0095044941957</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U20" t="n">
-        <v>160.2593078379008</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V20" t="n">
-        <v>236.6659134001992</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>258.1546236474773</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>278.6447556085333</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>295.1515935861179</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>75.44683857993165</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>81.62215391838005</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>56.35872049470306</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>66.55873538546525</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>53.98286732344819</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>46.25717209327495</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H21" t="n">
-        <v>21.14909916656077</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.071489082707444</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S21" t="n">
-        <v>80.59682603390213</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T21" t="n">
-        <v>109.0783836248859</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U21" t="n">
-        <v>134.8550370110391</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V21" t="n">
-        <v>141.7142420794896</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>160.6086380909839</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>114.6866401335418</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>114.5963507073687</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24124,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>88.74563511200161</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>76.16047602869214</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>57.52912794827667</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>55.34761757663348</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>54.33470295299556</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>76.90463428852307</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H22" t="n">
-        <v>71.14082743750389</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I22" t="n">
-        <v>64.3641298573226</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J22" t="n">
-        <v>2.272835046737086</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R22" t="n">
-        <v>86.2070463072338</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S22" t="n">
-        <v>132.9302529670366</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T22" t="n">
-        <v>136.8592443583458</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U22" t="n">
-        <v>195.2326842865552</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V22" t="n">
-        <v>161.0512982538923</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>195.4366532666553</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>134.6233103191014</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>127.4983082821591</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>291.6474965935449</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>274.1865467010718</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>263.5966965507473</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>290.8440250023261</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>315.7897006717757</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>324.2163924451993</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H23" t="n">
-        <v>248.3884570458314</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I23" t="n">
-        <v>119.3895445004702</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>58.78277287121399</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S23" t="n">
-        <v>117.9337245163097</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T23" t="n">
-        <v>132.0095044941957</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U23" t="n">
-        <v>160.2593078379008</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V23" t="n">
-        <v>236.6659134001992</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>258.1546236474773</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>278.6447556085333</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>295.1515935861179</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>75.44683857993165</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>81.62215391838005</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>56.35872049470306</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>66.55873538546525</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>53.98286732344819</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>46.25717209327495</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H24" t="n">
-        <v>21.14909916656077</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.071489082707444</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S24" t="n">
-        <v>80.59682603390213</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T24" t="n">
-        <v>109.0783836248859</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U24" t="n">
-        <v>134.8550370110391</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V24" t="n">
-        <v>141.7142420794896</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>160.6086380909839</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>114.6866401335418</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>114.5963507073687</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24361,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>88.74563511200161</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>76.16047602869214</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>57.52912794827667</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>55.34761757663348</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>54.33470295299556</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>76.90463428852307</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H25" t="n">
-        <v>71.14082743750389</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I25" t="n">
-        <v>64.3641298573226</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J25" t="n">
-        <v>2.272835046737086</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,31 +24408,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R25" t="n">
-        <v>86.2070463072338</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S25" t="n">
-        <v>132.9302529670366</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T25" t="n">
-        <v>136.8592443583458</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U25" t="n">
-        <v>195.2326842865552</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V25" t="n">
-        <v>161.0512982538923</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>195.4366532666553</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>134.6233103191014</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>127.4983082821591</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>296.5717984117862</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>279.1108485193132</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>268.5209983689886</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>295.7683268205674</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>320.714002490017</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>329.1406942634407</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H26" t="n">
-        <v>253.3127588640727</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I26" t="n">
-        <v>124.3138463187115</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>63.7070746894553</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S26" t="n">
-        <v>122.858026334551</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T26" t="n">
-        <v>136.933806312437</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U26" t="n">
-        <v>165.1836096561421</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V26" t="n">
-        <v>241.5902152184405</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>263.0789254657186</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>283.5690574267746</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>300.0758954043592</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>80.37114039817295</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>86.54645573662135</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>61.28302231294437</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>71.48303720370656</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>58.90716914168949</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>51.18147391151625</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H27" t="n">
-        <v>26.07340098480208</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I27" t="n">
-        <v>3.234589599720692</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>13.99579090094875</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S27" t="n">
-        <v>85.52112785214344</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T27" t="n">
-        <v>114.0026854431272</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U27" t="n">
-        <v>139.7793388292804</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V27" t="n">
-        <v>146.6385438977309</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>165.5329399092252</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>119.6109419517831</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>119.52065252561</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24598,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.66993693024291</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>81.08477784693345</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>62.45342976651797</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>60.27191939487479</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>59.25900477123686</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>81.82893610676437</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H28" t="n">
-        <v>76.06512925574519</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I28" t="n">
-        <v>69.2884316755639</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J28" t="n">
-        <v>7.19713686497839</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,31 +24645,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R28" t="n">
-        <v>91.1313481254751</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S28" t="n">
-        <v>137.8545547852779</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T28" t="n">
-        <v>141.7835461765871</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U28" t="n">
-        <v>200.1569861047965</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V28" t="n">
-        <v>165.9756000721336</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>200.3609550848966</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>139.5476121373428</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>132.4226101004004</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>237.3127936405493</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>219.8518437480763</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>209.2619935977517</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>236.5093220493305</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>261.4549977187802</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>269.8816894922038</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H29" t="n">
-        <v>194.0537540928359</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I29" t="n">
-        <v>65.05484154747467</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.448069918218437</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S29" t="n">
-        <v>63.5990215633141</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T29" t="n">
-        <v>77.67480154120011</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U29" t="n">
-        <v>105.9246048849052</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V29" t="n">
-        <v>182.3312104472037</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>203.8199206944818</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>224.3100526555378</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>240.8168906331223</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>21.11213562693609</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>27.28745096538449</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>2.024017541707508</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>12.2240324324697</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S30" t="n">
-        <v>26.26212308090658</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T30" t="n">
-        <v>54.74368067189036</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U30" t="n">
-        <v>80.52033405804357</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V30" t="n">
-        <v>87.37953912649402</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>106.2739351379884</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>60.35193718054623</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>60.26164775437312</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24835,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.41093215900605</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>21.82577307569659</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>3.194424995281111</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>1.012914623637926</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>22.56993133552751</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H31" t="n">
-        <v>16.80612448450833</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I31" t="n">
-        <v>10.02942690432704</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,31 +24882,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R31" t="n">
-        <v>31.87234335423824</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S31" t="n">
-        <v>78.59555001404101</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T31" t="n">
-        <v>82.52454140535025</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U31" t="n">
-        <v>140.8979813335596</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V31" t="n">
-        <v>106.7165953008968</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>141.1019503136598</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>80.28860736610591</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>73.16360532916354</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>237.3127936405493</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>219.8518437480763</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>209.2619935977517</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>236.5093220493305</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>261.4549977187802</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>269.8816894922038</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H32" t="n">
-        <v>194.0537540928359</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I32" t="n">
-        <v>65.05484154747467</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.448069918218437</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S32" t="n">
-        <v>63.5990215633141</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T32" t="n">
-        <v>77.67480154120011</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U32" t="n">
-        <v>105.9246048849052</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V32" t="n">
-        <v>182.3312104472037</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>203.8199206944818</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>224.3100526555378</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>240.8168906331223</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>21.11213562693609</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>27.28745096538449</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>2.024017541707508</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>12.2240324324697</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S33" t="n">
-        <v>26.26212308090658</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T33" t="n">
-        <v>54.74368067189036</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U33" t="n">
-        <v>80.52033405804357</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V33" t="n">
-        <v>87.37953912649402</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>106.2739351379884</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>60.35193718054623</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>60.26164775437312</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25072,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>34.41093215900605</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>21.82577307569659</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>3.194424995281111</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>1.012914623637926</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>22.56993133552751</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H34" t="n">
-        <v>16.80612448450833</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I34" t="n">
-        <v>10.02942690432704</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,31 +25119,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R34" t="n">
-        <v>31.87234335423824</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S34" t="n">
-        <v>78.59555001404101</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T34" t="n">
-        <v>82.52454140535025</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U34" t="n">
-        <v>140.8979813335596</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V34" t="n">
-        <v>106.7165953008968</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>141.1019503136598</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>80.28860736610591</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>73.16360532916354</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.3127936405493</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>219.8518437480763</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>209.2619935977517</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>236.5093220493305</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>261.4549977187802</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>269.8816894922038</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H35" t="n">
-        <v>194.0537540928359</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I35" t="n">
-        <v>65.05484154747467</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.448069918218437</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S35" t="n">
-        <v>63.5990215633141</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T35" t="n">
-        <v>77.67480154120011</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U35" t="n">
-        <v>105.9246048849052</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V35" t="n">
-        <v>182.3312104472037</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>203.8199206944818</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>224.3100526555378</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>240.8168906331223</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>21.11213562693609</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>27.28745096538449</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>2.024017541707508</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>12.2240324324697</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S36" t="n">
-        <v>26.26212308090658</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T36" t="n">
-        <v>54.74368067189036</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U36" t="n">
-        <v>80.52033405804357</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V36" t="n">
-        <v>87.37953912649402</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>106.2739351379884</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>60.35193718054623</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>60.26164775437312</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25309,31 +25311,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.41093215900605</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>21.82577307569659</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>3.194424995281111</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>1.012914623637926</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>22.56993133552751</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H37" t="n">
-        <v>16.80612448450833</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I37" t="n">
-        <v>10.02942690432704</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,31 +25356,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R37" t="n">
-        <v>31.87234335423824</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S37" t="n">
-        <v>78.59555001404101</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T37" t="n">
-        <v>82.52454140535025</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U37" t="n">
-        <v>140.8979813335596</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V37" t="n">
-        <v>106.7165953008968</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>141.1019503136598</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>80.28860736610591</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>73.16360532916354</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>237.3127936405493</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>219.8518437480763</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>209.2619935977517</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>236.5093220493305</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>261.4549977187802</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>269.8816894922038</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H38" t="n">
-        <v>194.0537540928359</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I38" t="n">
-        <v>65.05484154747467</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.448069918218437</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S38" t="n">
-        <v>63.5990215633141</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T38" t="n">
-        <v>77.67480154120011</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U38" t="n">
-        <v>105.9246048849052</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V38" t="n">
-        <v>182.3312104472037</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>203.8199206944818</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>224.3100526555378</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>240.8168906331223</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>21.11213562693609</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>27.28745096538449</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>2.024017541707508</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>12.2240324324697</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S39" t="n">
-        <v>26.26212308090658</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T39" t="n">
-        <v>54.74368067189036</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U39" t="n">
-        <v>80.52033405804357</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V39" t="n">
-        <v>87.37953912649402</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>106.2739351379884</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>60.35193718054623</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>60.26164775437312</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25546,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.41093215900605</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>21.82577307569659</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>3.194424995281111</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>1.012914623637926</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>22.56993133552751</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H40" t="n">
-        <v>16.80612448450833</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I40" t="n">
-        <v>10.02942690432704</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R40" t="n">
-        <v>31.87234335423824</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S40" t="n">
-        <v>78.59555001404101</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T40" t="n">
-        <v>82.52454140535025</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U40" t="n">
-        <v>140.8979813335596</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V40" t="n">
-        <v>106.7165953008968</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>141.1019503136598</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>80.28860736610591</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>73.16360532916354</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>244.3377811769205</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>226.8768312844475</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>216.2869811341229</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>243.5343095857017</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>268.4799852551514</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>276.906677028575</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H41" t="n">
-        <v>201.0787416292071</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I41" t="n">
-        <v>72.07982908384588</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>11.47305745458965</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S41" t="n">
-        <v>70.62400909968531</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T41" t="n">
-        <v>84.69978907757132</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U41" t="n">
-        <v>112.9495924212765</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V41" t="n">
-        <v>189.3561979835749</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>210.844908230853</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>231.335040191909</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>247.8418781694936</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.13712316330731</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>34.31243850175571</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>9.049005078078721</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>19.24901996884091</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>6.673151906823847</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S42" t="n">
-        <v>33.28711061727779</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T42" t="n">
-        <v>61.76866820826157</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U42" t="n">
-        <v>87.54532159441479</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V42" t="n">
-        <v>94.40452666286524</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>113.2989226743596</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>67.37692471691744</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>67.28663529074433</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25783,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.43591969537727</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>28.8507606120678</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>10.21941253165232</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>8.037902160009139</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>7.024987536371214</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>29.59491887189873</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H43" t="n">
-        <v>23.83111202087954</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I43" t="n">
-        <v>17.05441444069825</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R43" t="n">
-        <v>38.89733089060945</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S43" t="n">
-        <v>85.62053755041222</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T43" t="n">
-        <v>89.54952894172146</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U43" t="n">
-        <v>147.9229688699309</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V43" t="n">
-        <v>113.741582837268</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>148.126937850031</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>87.31359490247712</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.18859286553476</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25877,16 +25879,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,16 +25958,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,19 +26037,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26062,22 +26064,22 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>351978.9744321667</v>
+        <v>280352.6758596278</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490037.9160203411</v>
+        <v>280352.6758596278</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490037.9160203411</v>
+        <v>280352.6758596278</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490037.9160203411</v>
+        <v>280352.6758596278</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490037.9160203411</v>
+        <v>280352.6758596278</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481742.1774969437</v>
+        <v>280352.6758596278</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>571742.270763443</v>
+        <v>280352.6758596278</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>571742.2707634427</v>
+        <v>280352.6758596278</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>571742.2707634427</v>
+        <v>280352.6758596278</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>571742.2707634427</v>
+        <v>280352.6758596278</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>561848.5480489077</v>
+        <v>280352.6758596278</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>327897.5868709115</v>
+        <v>280352.6758596278</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>737348.7048453344</v>
+      </c>
+      <c r="C2" t="n">
+        <v>737348.7048453344</v>
+      </c>
+      <c r="D2" t="n">
         <v>737348.7048453346</v>
       </c>
-      <c r="C2" t="n">
-        <v>737348.7048453346</v>
-      </c>
-      <c r="D2" t="n">
-        <v>737348.7048453344</v>
-      </c>
       <c r="E2" t="n">
-        <v>221068.8836719024</v>
+        <v>205776.9866697545</v>
       </c>
       <c r="F2" t="n">
-        <v>390917.4224505472</v>
+        <v>205776.9866697545</v>
       </c>
       <c r="G2" t="n">
-        <v>390917.4224505472</v>
+        <v>205776.9866697545</v>
       </c>
       <c r="H2" t="n">
-        <v>390917.4224505471</v>
+        <v>205776.9866697545</v>
       </c>
       <c r="I2" t="n">
-        <v>390917.4224505471</v>
+        <v>205776.9866697545</v>
       </c>
       <c r="J2" t="n">
-        <v>380522.6848068611</v>
+        <v>205776.9866697545</v>
       </c>
       <c r="K2" t="n">
-        <v>499811.1114042364</v>
+        <v>205776.9866697545</v>
       </c>
       <c r="L2" t="n">
-        <v>499811.1114042366</v>
+        <v>205776.9866697545</v>
       </c>
       <c r="M2" t="n">
-        <v>499811.1114042366</v>
+        <v>205776.9866697545</v>
       </c>
       <c r="N2" t="n">
-        <v>499811.1114042366</v>
+        <v>205776.9866697545</v>
       </c>
       <c r="O2" t="n">
-        <v>486127.4977529446</v>
+        <v>205776.9866697545</v>
       </c>
       <c r="P2" t="n">
-        <v>193513.3299566035</v>
+        <v>205776.9866697545</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>9559.431483690014</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>63309.64457225853</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>5619.990029096971</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>110716.848389248</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>161918.9841029391</v>
+        <v>86007.74400485968</v>
       </c>
       <c r="F4" t="n">
-        <v>266243.7499091688</v>
+        <v>86007.74400485966</v>
       </c>
       <c r="G4" t="n">
-        <v>266243.7499091688</v>
+        <v>86007.74400485968</v>
       </c>
       <c r="H4" t="n">
-        <v>266243.7499091688</v>
+        <v>86007.74400485966</v>
       </c>
       <c r="I4" t="n">
-        <v>266243.7499091688</v>
+        <v>86007.74400485968</v>
       </c>
       <c r="J4" t="n">
-        <v>259882.3499284709</v>
+        <v>86007.74400485966</v>
       </c>
       <c r="K4" t="n">
-        <v>332095.9550923903</v>
+        <v>86007.74400485968</v>
       </c>
       <c r="L4" t="n">
-        <v>332095.9550923902</v>
+        <v>86007.74400485966</v>
       </c>
       <c r="M4" t="n">
-        <v>332095.9550923902</v>
+        <v>86007.74400485968</v>
       </c>
       <c r="N4" t="n">
-        <v>332095.9550923902</v>
+        <v>86007.74400485966</v>
       </c>
       <c r="O4" t="n">
-        <v>323877.5674594782</v>
+        <v>86007.74400485968</v>
       </c>
       <c r="P4" t="n">
-        <v>144738.4206832074</v>
+        <v>86007.74400485966</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>1004.56480675292</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="F5" t="n">
-        <v>7657.537943684423</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="G5" t="n">
-        <v>7657.537943684423</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="H5" t="n">
-        <v>7657.537943684423</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="I5" t="n">
-        <v>7657.537943684423</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="J5" t="n">
-        <v>7243.556814126696</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="K5" t="n">
-        <v>12225.40208623981</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="L5" t="n">
-        <v>12225.40208623981</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="M5" t="n">
-        <v>12225.40208623981</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="N5" t="n">
-        <v>12225.40208623981</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="O5" t="n">
-        <v>11634.81840904462</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>3611.612105008322</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>236105.1449136032</v>
+      </c>
+      <c r="C6" t="n">
+        <v>236105.1449136032</v>
+      </c>
+      <c r="D6" t="n">
         <v>236105.1449136034</v>
       </c>
-      <c r="C6" t="n">
-        <v>236105.1449136034</v>
-      </c>
-      <c r="D6" t="n">
-        <v>236105.1449136032</v>
-      </c>
       <c r="E6" t="n">
-        <v>48585.9032785204</v>
+        <v>-16942.36944011357</v>
       </c>
       <c r="F6" t="n">
-        <v>53706.49002543541</v>
+        <v>116157.6305598865</v>
       </c>
       <c r="G6" t="n">
-        <v>117016.1345976939</v>
+        <v>116157.6305598865</v>
       </c>
       <c r="H6" t="n">
-        <v>117016.1345976939</v>
+        <v>116157.6305598865</v>
       </c>
       <c r="I6" t="n">
-        <v>117016.1345976939</v>
+        <v>116157.6305598865</v>
       </c>
       <c r="J6" t="n">
-        <v>107776.7880351665</v>
+        <v>116157.6305598865</v>
       </c>
       <c r="K6" t="n">
-        <v>44772.90583635829</v>
+        <v>116157.6305598865</v>
       </c>
       <c r="L6" t="n">
-        <v>155489.7542256066</v>
+        <v>116157.6305598865</v>
       </c>
       <c r="M6" t="n">
-        <v>155489.7542256066</v>
+        <v>116157.6305598865</v>
       </c>
       <c r="N6" t="n">
-        <v>155489.7542256066</v>
+        <v>116157.6305598865</v>
       </c>
       <c r="O6" t="n">
-        <v>150615.1118844218</v>
+        <v>116157.6305598865</v>
       </c>
       <c r="P6" t="n">
-        <v>48774.90927339616</v>
+        <v>116157.6305598865</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26694,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>165.6702800462533</v>
       </c>
     </row>
     <row r="4">
@@ -26914,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>79.13705571532317</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.024987536371214</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27151,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>79.13705571532317</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.024987536371214</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,31 +28089,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -28132,31 +28134,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28166,34 +28168,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>8.792873298677284</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -28202,7 +28204,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -28214,28 +28216,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28324,31 +28326,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -28369,31 +28371,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.2701759143637</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28403,31 +28405,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28436,7 +28438,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -28445,34 +28447,34 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,31 +28563,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -28606,31 +28608,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28640,31 +28642,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28673,7 +28675,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -28685,31 +28687,31 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>68.71551330771354</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,31 +28800,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -28843,31 +28845,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28877,34 +28879,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -28913,7 +28915,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>67.02580108919337</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -28925,28 +28927,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,31 +29037,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29080,31 +29082,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29114,31 +29116,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29150,40 +29152,40 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>67.02580108919337</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>91.08634506993569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29272,31 +29274,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -29317,31 +29319,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>74.03874068361434</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29351,31 +29353,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29384,7 +29386,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -29393,34 +29395,34 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29509,31 +29511,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -29554,31 +29556,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29588,76 +29590,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>21.82466116046367</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29667,34 +29669,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>126.9954214393961</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>129.0132581705354</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29709,34 +29711,34 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>137.7280040491476</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29746,31 +29748,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29791,31 +29793,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29825,76 +29827,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>25.86652582504284</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29904,34 +29906,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>126.9954214393961</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>129.0132581705354</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29946,34 +29948,34 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>137.7280040491476</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29983,31 +29985,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -30028,31 +30030,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30062,76 +30064,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>91.85869169727746</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30141,34 +30143,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>126.9954214393961</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>129.0132581705354</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30177,40 +30179,40 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>137.7280040491476</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,31 +30222,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30265,31 +30267,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30299,76 +30301,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>25.86652582504246</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30378,34 +30380,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>126.9954214393961</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>129.0132581705354</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30420,34 +30422,34 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>137.7280040491476</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,31 +30459,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30502,31 +30504,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30536,76 +30538,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1.660419960508423</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30615,34 +30617,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>126.9954214393961</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>129.0132581705354</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30657,34 +30659,34 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>137.7280040491476</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>138.39606048656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
